--- a/doors-detector/results/house13_door_no_door.xlsx
+++ b/doors-detector/results/house13_door_no_door.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6834312296916634</v>
+        <v>0.7030506909545378</v>
       </c>
       <c r="F2" t="n">
         <v>2300</v>
       </c>
       <c r="G2" t="n">
-        <v>1780</v>
+        <v>1815</v>
       </c>
       <c r="H2" t="n">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6987302189304794</v>
+        <v>0.7124531608797946</v>
       </c>
       <c r="F3" t="n">
         <v>162</v>
       </c>
       <c r="G3" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H3" t="n">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.740066185757145</v>
+        <v>0.7398132304234319</v>
       </c>
       <c r="F4" t="n">
         <v>2300</v>
       </c>
       <c r="G4" t="n">
-        <v>1865</v>
+        <v>1870</v>
       </c>
       <c r="H4" t="n">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7428729244175559</v>
+        <v>0.7545423704779334</v>
       </c>
       <c r="F5" t="n">
         <v>162</v>
       </c>
       <c r="G5" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H5" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7582392231518744</v>
+        <v>0.778949245864673</v>
       </c>
       <c r="F6" t="n">
         <v>2300</v>
       </c>
       <c r="G6" t="n">
-        <v>1908</v>
+        <v>1942</v>
       </c>
       <c r="H6" t="n">
-        <v>392</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8405098601360818</v>
+        <v>0.8234078677054725</v>
       </c>
       <c r="F7" t="n">
         <v>162</v>
       </c>
       <c r="G7" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H7" t="n">
         <v>126</v>
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7863619227632965</v>
+        <v>0.791760043398325</v>
       </c>
       <c r="F8" t="n">
         <v>2300</v>
       </c>
       <c r="G8" t="n">
-        <v>1946</v>
+        <v>1954</v>
       </c>
       <c r="H8" t="n">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8106959477973742</v>
+        <v>0.8010374049102802</v>
       </c>
       <c r="F9" t="n">
         <v>162</v>
       </c>
       <c r="G9" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H9" t="n">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
